--- a/src/results_2023/2382_out.xlsx
+++ b/src/results_2023/2382_out.xlsx
@@ -8,6 +8,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Git" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Linux" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Информатика. Раздел 1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Информатика. Раздел 2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Информатика. Раздел 3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Информатика. Раздел 4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Информатика. Раздел 5" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1409,4 +1415,5956 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ФИО</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Группа</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>github</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>e.moevm.info</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Итого</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Оценка</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Антохина Алина Витальевна</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>alinaantohina86@gmail.com</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>alina8088</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>alina8888@</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>113</v>
+      </c>
+      <c r="H2" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Ахметгареев Карим Ильгизович</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>akhmetgareevai@mail.ru</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Бодарева Софья Александровна</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>bodareva03@gmail.com</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>sofyabodareva</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Софья Бодарева</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>113</v>
+      </c>
+      <c r="H4" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Буряков Павел Сергеевич</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>pashaburyakov2017@yandex.ru</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>pavell5</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>user/profile.php?id=1324</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>113</v>
+      </c>
+      <c r="H5" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Бухарин Максим Алексеевич</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>cantsif@gmail.com</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Вакуленко Инна Юрьевна</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>invackk@gmail.com</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>me1nna</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>me1nna</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>113</v>
+      </c>
+      <c r="H7" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ваньков Ярослав Сергеевич</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>van1kov@mail.ru</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>doalvaro</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>van1kov</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>113</v>
+      </c>
+      <c r="H8" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Возгрин Мирон Валентинович</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>vozgrinmir@mail.ru</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>vozgrinmiron</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>vozgrinmir@mail.ru</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>113</v>
+      </c>
+      <c r="H9" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Жохов Кирилл Сергеевич</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>kzhokhov04@mail.ru</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>krbll</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>krbll или Кирилл Жохов</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>113</v>
+      </c>
+      <c r="H10" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Ивашинников Леонид Дмитриевич</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>computerdragon13@gmail.com</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>spanwalla</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>spanwalla</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>113</v>
+      </c>
+      <c r="H11" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Красноперова Ангелина Андреевна</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>krasnoperova.lina@internet.ru</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>janschu1z</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>schu1z</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>113</v>
+      </c>
+      <c r="H12" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Молчанов Марк Андреевич</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>mark555@inbox.ru</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>markleti</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Markleti</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Муравин Егор Евгеньевич</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>zamok7707@gmail.com</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>egor213</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Егор Муравин</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>113</v>
+      </c>
+      <c r="H14" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Нечаев Вадим Сергеевич</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>vadimka.nechaev.03@mail.ru</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>kirito200318</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Вадим Нечаев</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>113</v>
+      </c>
+      <c r="H15" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Попов Владимир Дмитриевич</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>vl337pop@gmail.com</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ddsoulbb</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>ddsoulbb</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>113</v>
+      </c>
+      <c r="H16" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Рахматуллин Руслан Рамилевич</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>boobi0710@gmail.com</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ruslan0v</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>ruslan7</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>113</v>
+      </c>
+      <c r="H17" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Семененко Анна Сергеевна</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>aniuts.semenencko2014@gmail.com</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>sorkan176</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Анна Семененко</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>113</v>
+      </c>
+      <c r="H18" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Смирнова Анастасия Игоревна</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>anastasya.i.smirnova@yandex.ru</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>nostyaaa</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Анастасия Смирнова</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Толмачёв Сергей Андреевич</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>dvoorog@gmail.com</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>dvurough</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>dvurough</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>113</v>
+      </c>
+      <c r="H20" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Ульянова Екатерина Алексеевна</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>ulyanova24ktrn@gmail.com</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>ulyanovaktrn</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>ulyanovaktrn</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>113</v>
+      </c>
+      <c r="H21" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Чепасов Дмитрий Витальевич</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>dchepasov@yandex.ru</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>zorinal</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Дмитрий Чепасов</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>113</v>
+      </c>
+      <c r="H22" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Шавырин Владислав Юрьевич</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>vlad-shavyrin@mail.ru</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>jerywel</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>jerywel</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>113</v>
+      </c>
+      <c r="H23" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Шамхалов Якуб Мирзабекович</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>yaqvadrat@mail.ru</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>yaqvadrat</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>yaqvadrat или Якуб Шамхалов</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>113</v>
+      </c>
+      <c r="H24" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Щёголева Надежда Дмитриевна</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>shegolevanadya02@gmail.com</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>copybarasad</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Nadya1@</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>113</v>
+      </c>
+      <c r="H25" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Щедрин Арсений Александрович</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>shchedrin.arsenij@gmail.com</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>ars667</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>ars667</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>113</v>
+      </c>
+      <c r="H26" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Морозов Фёдор</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>morozovf87@gmail.com</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>yafedya</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>yafedya</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>3</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Смирнов Алексей Витальевич</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>stendec4@mail.ru</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>stendec4</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>stendec4</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>112</v>
+      </c>
+      <c r="H28" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Селянинов Иван Андреевич</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>vamka.sel@mail.ru</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>forzeros</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>forzero3</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>112</v>
+      </c>
+      <c r="H29" t="n">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ФИО</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Группа</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>github</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>e.moevm.info</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Итого</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Оценка</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Антохина Алина Витальевна</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>alinaantohina86@gmail.com</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>alina8088</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>alina8888@</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>74</v>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Ахметгареев Карим Ильгизович</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>akhmetgareevai@mail.ru</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Бодарева Софья Александровна</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>bodareva03@gmail.com</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>sofyabodareva</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Софья Бодарева</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>59</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Буряков Павел Сергеевич</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>pashaburyakov2017@yandex.ru</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>pavell5</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>user/profile.php?id=1324</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>74</v>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Бухарин Максим Алексеевич</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>cantsif@gmail.com</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Вакуленко Инна Юрьевна</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>invackk@gmail.com</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>me1nna</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>me1nna</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>74</v>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ваньков Ярослав Сергеевич</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>van1kov@mail.ru</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>doalvaro</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>van1kov</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>74</v>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Возгрин Мирон Валентинович</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>vozgrinmir@mail.ru</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>vozgrinmiron</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>vozgrinmir@mail.ru</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>56</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Жохов Кирилл Сергеевич</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>kzhokhov04@mail.ru</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>krbll</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>krbll или Кирилл Жохов</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>74</v>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Ивашинников Леонид Дмитриевич</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>computerdragon13@gmail.com</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>spanwalla</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>spanwalla</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>74</v>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Красноперова Ангелина Андреевна</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>krasnoperova.lina@internet.ru</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>janschu1z</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>schu1z</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>74</v>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Молчанов Марк Андреевич</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>mark555@inbox.ru</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>markleti</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Markleti</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>4</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Муравин Егор Евгеньевич</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>zamok7707@gmail.com</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>egor213</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Егор Муравин</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>74</v>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Нечаев Вадим Сергеевич</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>vadimka.nechaev.03@mail.ru</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>kirito200318</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Вадим Нечаев</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>74</v>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Попов Владимир Дмитриевич</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>vl337pop@gmail.com</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ddsoulbb</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>ddsoulbb</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>74</v>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Рахматуллин Руслан Рамилевич</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>boobi0710@gmail.com</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ruslan0v</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>ruslan7</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>68</v>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Семененко Анна Сергеевна</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>aniuts.semenencko2014@gmail.com</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>sorkan176</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Анна Семененко</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>74</v>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Смирнова Анастасия Игоревна</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>anastasya.i.smirnova@yandex.ru</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>nostyaaa</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Анастасия Смирнова</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Толмачёв Сергей Андреевич</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>dvoorog@gmail.com</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>dvurough</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>dvurough</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>74</v>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Ульянова Екатерина Алексеевна</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>ulyanova24ktrn@gmail.com</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>ulyanovaktrn</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>ulyanovaktrn</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>74</v>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Чепасов Дмитрий Витальевич</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>dchepasov@yandex.ru</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>zorinal</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Дмитрий Чепасов</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>68</v>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Шавырин Владислав Юрьевич</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>vlad-shavyrin@mail.ru</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>jerywel</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>jerywel</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>74</v>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Шамхалов Якуб Мирзабекович</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>yaqvadrat@mail.ru</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>yaqvadrat</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>yaqvadrat или Якуб Шамхалов</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>74</v>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Щёголева Надежда Дмитриевна</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>shegolevanadya02@gmail.com</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>copybarasad</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Nadya1@</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>74</v>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Щедрин Арсений Александрович</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>shchedrin.arsenij@gmail.com</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>ars667</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>ars667</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>74</v>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Морозов Фёдор</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>morozovf87@gmail.com</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>yafedya</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>yafedya</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>4</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Смирнов Алексей Витальевич</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>stendec4@mail.ru</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>stendec4</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>stendec4</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>49</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Селянинов Иван Андреевич</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>vamka.sel@mail.ru</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>forzeros</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>forzero3</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>4</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ФИО</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Группа</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>github</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>e.moevm.info</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Итого</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Оценка</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Антохина Алина Витальевна</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>alinaantohina86@gmail.com</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>alina8088</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>alina8888@</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>74</v>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Ахметгареев Карим Ильгизович</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>akhmetgareevai@mail.ru</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Бодарева Софья Александровна</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>bodareva03@gmail.com</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>sofyabodareva</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Софья Бодарева</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>59</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Буряков Павел Сергеевич</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>pashaburyakov2017@yandex.ru</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>pavell5</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>user/profile.php?id=1324</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>74</v>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Бухарин Максим Алексеевич</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>cantsif@gmail.com</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Вакуленко Инна Юрьевна</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>invackk@gmail.com</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>me1nna</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>me1nna</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>74</v>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ваньков Ярослав Сергеевич</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>van1kov@mail.ru</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>doalvaro</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>van1kov</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>74</v>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Возгрин Мирон Валентинович</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>vozgrinmir@mail.ru</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>vozgrinmiron</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>vozgrinmir@mail.ru</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>56</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Жохов Кирилл Сергеевич</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>kzhokhov04@mail.ru</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>krbll</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>krbll или Кирилл Жохов</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>74</v>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Ивашинников Леонид Дмитриевич</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>computerdragon13@gmail.com</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>spanwalla</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>spanwalla</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>74</v>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Красноперова Ангелина Андреевна</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>krasnoperova.lina@internet.ru</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>janschu1z</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>schu1z</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>74</v>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Молчанов Марк Андреевич</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>mark555@inbox.ru</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>markleti</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Markleti</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>4</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Муравин Егор Евгеньевич</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>zamok7707@gmail.com</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>egor213</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Егор Муравин</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>74</v>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Нечаев Вадим Сергеевич</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>vadimka.nechaev.03@mail.ru</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>kirito200318</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Вадим Нечаев</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>74</v>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Попов Владимир Дмитриевич</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>vl337pop@gmail.com</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ddsoulbb</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>ddsoulbb</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>74</v>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Рахматуллин Руслан Рамилевич</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>boobi0710@gmail.com</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ruslan0v</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>ruslan7</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>68</v>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Семененко Анна Сергеевна</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>aniuts.semenencko2014@gmail.com</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>sorkan176</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Анна Семененко</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>74</v>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Смирнова Анастасия Игоревна</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>anastasya.i.smirnova@yandex.ru</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>nostyaaa</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Анастасия Смирнова</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Толмачёв Сергей Андреевич</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>dvoorog@gmail.com</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>dvurough</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>dvurough</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>74</v>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Ульянова Екатерина Алексеевна</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>ulyanova24ktrn@gmail.com</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>ulyanovaktrn</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>ulyanovaktrn</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>74</v>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Чепасов Дмитрий Витальевич</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>dchepasov@yandex.ru</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>zorinal</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Дмитрий Чепасов</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>68</v>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Шавырин Владислав Юрьевич</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>vlad-shavyrin@mail.ru</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>jerywel</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>jerywel</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>74</v>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Шамхалов Якуб Мирзабекович</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>yaqvadrat@mail.ru</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>yaqvadrat</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>yaqvadrat или Якуб Шамхалов</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>74</v>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Щёголева Надежда Дмитриевна</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>shegolevanadya02@gmail.com</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>copybarasad</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Nadya1@</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>74</v>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Щедрин Арсений Александрович</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>shchedrin.arsenij@gmail.com</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>ars667</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>ars667</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>74</v>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Морозов Фёдор</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>morozovf87@gmail.com</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>yafedya</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>yafedya</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>4</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Смирнов Алексей Витальевич</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>stendec4@mail.ru</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>stendec4</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>stendec4</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>49</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Селянинов Иван Андреевич</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>vamka.sel@mail.ru</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>forzeros</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>forzero3</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>4</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ФИО</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Группа</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>github</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>e.moevm.info</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Итого</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Оценка</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Антохина Алина Витальевна</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>alinaantohina86@gmail.com</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>alina8088</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>alina8888@</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>74</v>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Ахметгареев Карим Ильгизович</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>akhmetgareevai@mail.ru</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Бодарева Софья Александровна</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>bodareva03@gmail.com</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>sofyabodareva</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Софья Бодарева</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>59</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Буряков Павел Сергеевич</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>pashaburyakov2017@yandex.ru</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>pavell5</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>user/profile.php?id=1324</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>74</v>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Бухарин Максим Алексеевич</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>cantsif@gmail.com</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Вакуленко Инна Юрьевна</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>invackk@gmail.com</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>me1nna</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>me1nna</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>74</v>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ваньков Ярослав Сергеевич</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>van1kov@mail.ru</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>doalvaro</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>van1kov</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>74</v>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Возгрин Мирон Валентинович</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>vozgrinmir@mail.ru</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>vozgrinmiron</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>vozgrinmir@mail.ru</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>56</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Жохов Кирилл Сергеевич</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>kzhokhov04@mail.ru</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>krbll</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>krbll или Кирилл Жохов</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>74</v>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Ивашинников Леонид Дмитриевич</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>computerdragon13@gmail.com</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>spanwalla</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>spanwalla</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>74</v>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Красноперова Ангелина Андреевна</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>krasnoperova.lina@internet.ru</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>janschu1z</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>schu1z</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>74</v>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Молчанов Марк Андреевич</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>mark555@inbox.ru</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>markleti</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Markleti</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>4</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Муравин Егор Евгеньевич</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>zamok7707@gmail.com</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>egor213</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Егор Муравин</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>74</v>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Нечаев Вадим Сергеевич</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>vadimka.nechaev.03@mail.ru</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>kirito200318</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Вадим Нечаев</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>74</v>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Попов Владимир Дмитриевич</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>vl337pop@gmail.com</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ddsoulbb</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>ddsoulbb</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>74</v>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Рахматуллин Руслан Рамилевич</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>boobi0710@gmail.com</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ruslan0v</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>ruslan7</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>68</v>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Семененко Анна Сергеевна</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>aniuts.semenencko2014@gmail.com</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>sorkan176</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Анна Семененко</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>74</v>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Смирнова Анастасия Игоревна</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>anastasya.i.smirnova@yandex.ru</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>nostyaaa</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Анастасия Смирнова</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Толмачёв Сергей Андреевич</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>dvoorog@gmail.com</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>dvurough</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>dvurough</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>74</v>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Ульянова Екатерина Алексеевна</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>ulyanova24ktrn@gmail.com</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>ulyanovaktrn</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>ulyanovaktrn</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>74</v>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Чепасов Дмитрий Витальевич</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>dchepasov@yandex.ru</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>zorinal</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Дмитрий Чепасов</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>68</v>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Шавырин Владислав Юрьевич</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>vlad-shavyrin@mail.ru</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>jerywel</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>jerywel</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>74</v>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Шамхалов Якуб Мирзабекович</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>yaqvadrat@mail.ru</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>yaqvadrat</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>yaqvadrat или Якуб Шамхалов</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>74</v>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Щёголева Надежда Дмитриевна</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>shegolevanadya02@gmail.com</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>copybarasad</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Nadya1@</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>74</v>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Щедрин Арсений Александрович</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>shchedrin.arsenij@gmail.com</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>ars667</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>ars667</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>74</v>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Морозов Фёдор</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>morozovf87@gmail.com</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>yafedya</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>yafedya</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>4</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Смирнов Алексей Витальевич</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>stendec4@mail.ru</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>stendec4</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>stendec4</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>49</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Селянинов Иван Андреевич</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>vamka.sel@mail.ru</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>forzeros</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>forzero3</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>4</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ФИО</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Группа</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>github</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>e.moevm.info</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Итого</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Оценка</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Антохина Алина Витальевна</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>alinaantohina86@gmail.com</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>alina8088</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>alina8888@</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>74</v>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Ахметгареев Карим Ильгизович</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>akhmetgareevai@mail.ru</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Бодарева Софья Александровна</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>bodareva03@gmail.com</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>sofyabodareva</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Софья Бодарева</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>59</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Буряков Павел Сергеевич</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>pashaburyakov2017@yandex.ru</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>pavell5</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>user/profile.php?id=1324</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>74</v>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Бухарин Максим Алексеевич</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>cantsif@gmail.com</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Вакуленко Инна Юрьевна</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>invackk@gmail.com</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>me1nna</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>me1nna</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>74</v>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ваньков Ярослав Сергеевич</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>van1kov@mail.ru</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>doalvaro</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>van1kov</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>74</v>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Возгрин Мирон Валентинович</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>vozgrinmir@mail.ru</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>vozgrinmiron</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>vozgrinmir@mail.ru</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>56</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Жохов Кирилл Сергеевич</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>kzhokhov04@mail.ru</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>krbll</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>krbll или Кирилл Жохов</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>74</v>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Ивашинников Леонид Дмитриевич</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>computerdragon13@gmail.com</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>spanwalla</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>spanwalla</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>74</v>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Красноперова Ангелина Андреевна</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>krasnoperova.lina@internet.ru</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>janschu1z</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>schu1z</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>74</v>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Молчанов Марк Андреевич</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>mark555@inbox.ru</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>markleti</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Markleti</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>4</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Муравин Егор Евгеньевич</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>zamok7707@gmail.com</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>egor213</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Егор Муравин</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>74</v>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Нечаев Вадим Сергеевич</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>vadimka.nechaev.03@mail.ru</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>kirito200318</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Вадим Нечаев</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>74</v>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Попов Владимир Дмитриевич</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>vl337pop@gmail.com</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ddsoulbb</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>ddsoulbb</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>74</v>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Рахматуллин Руслан Рамилевич</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>boobi0710@gmail.com</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ruslan0v</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>ruslan7</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>68</v>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Семененко Анна Сергеевна</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>aniuts.semenencko2014@gmail.com</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>sorkan176</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Анна Семененко</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>74</v>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Смирнова Анастасия Игоревна</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>anastasya.i.smirnova@yandex.ru</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>nostyaaa</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Анастасия Смирнова</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Толмачёв Сергей Андреевич</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>dvoorog@gmail.com</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>dvurough</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>dvurough</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>74</v>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Ульянова Екатерина Алексеевна</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>ulyanova24ktrn@gmail.com</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>ulyanovaktrn</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>ulyanovaktrn</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>74</v>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Чепасов Дмитрий Витальевич</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>dchepasov@yandex.ru</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>zorinal</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Дмитрий Чепасов</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>68</v>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Шавырин Владислав Юрьевич</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>vlad-shavyrin@mail.ru</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>jerywel</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>jerywel</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>74</v>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Шамхалов Якуб Мирзабекович</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>yaqvadrat@mail.ru</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>yaqvadrat</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>yaqvadrat или Якуб Шамхалов</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>74</v>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Щёголева Надежда Дмитриевна</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>shegolevanadya02@gmail.com</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>copybarasad</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Nadya1@</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>74</v>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Щедрин Арсений Александрович</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>shchedrin.arsenij@gmail.com</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>ars667</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>ars667</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>74</v>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Морозов Фёдор</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>morozovf87@gmail.com</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>yafedya</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>yafedya</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>4</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Смирнов Алексей Витальевич</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>stendec4@mail.ru</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>stendec4</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>stendec4</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>49</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Селянинов Иван Андреевич</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>vamka.sel@mail.ru</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>forzeros</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>forzero3</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>4</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ФИО</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Группа</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>github</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>e.moevm.info</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Итого</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Оценка</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Антохина Алина Витальевна</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>alinaantohina86@gmail.com</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>alina8088</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>alina8888@</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>74</v>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Ахметгареев Карим Ильгизович</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>akhmetgareevai@mail.ru</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Бодарева Софья Александровна</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>bodareva03@gmail.com</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>sofyabodareva</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Софья Бодарева</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>59</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Буряков Павел Сергеевич</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>pashaburyakov2017@yandex.ru</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>pavell5</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>user/profile.php?id=1324</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>74</v>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Бухарин Максим Алексеевич</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>cantsif@gmail.com</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Вакуленко Инна Юрьевна</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>invackk@gmail.com</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>me1nna</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>me1nna</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>74</v>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ваньков Ярослав Сергеевич</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>van1kov@mail.ru</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>doalvaro</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>van1kov</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>74</v>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Возгрин Мирон Валентинович</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>vozgrinmir@mail.ru</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>vozgrinmiron</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>vozgrinmir@mail.ru</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>56</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Жохов Кирилл Сергеевич</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>kzhokhov04@mail.ru</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>krbll</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>krbll или Кирилл Жохов</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>74</v>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Ивашинников Леонид Дмитриевич</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>computerdragon13@gmail.com</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>spanwalla</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>spanwalla</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>74</v>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Красноперова Ангелина Андреевна</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>krasnoperova.lina@internet.ru</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>janschu1z</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>schu1z</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>74</v>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Молчанов Марк Андреевич</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>mark555@inbox.ru</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>markleti</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Markleti</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>4</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Муравин Егор Евгеньевич</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>zamok7707@gmail.com</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>egor213</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Егор Муравин</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>74</v>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Нечаев Вадим Сергеевич</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>vadimka.nechaev.03@mail.ru</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>kirito200318</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Вадим Нечаев</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>74</v>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Попов Владимир Дмитриевич</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>vl337pop@gmail.com</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ddsoulbb</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>ddsoulbb</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>74</v>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Рахматуллин Руслан Рамилевич</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>boobi0710@gmail.com</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ruslan0v</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>ruslan7</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>68</v>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Семененко Анна Сергеевна</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>aniuts.semenencko2014@gmail.com</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>sorkan176</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Анна Семененко</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>74</v>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Смирнова Анастасия Игоревна</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>anastasya.i.smirnova@yandex.ru</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>nostyaaa</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Анастасия Смирнова</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Толмачёв Сергей Андреевич</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>dvoorog@gmail.com</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>dvurough</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>dvurough</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>74</v>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Ульянова Екатерина Алексеевна</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>ulyanova24ktrn@gmail.com</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>ulyanovaktrn</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>ulyanovaktrn</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>74</v>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Чепасов Дмитрий Витальевич</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>dchepasov@yandex.ru</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>zorinal</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Дмитрий Чепасов</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>68</v>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Шавырин Владислав Юрьевич</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>vlad-shavyrin@mail.ru</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>jerywel</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>jerywel</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>74</v>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Шамхалов Якуб Мирзабекович</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>yaqvadrat@mail.ru</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>yaqvadrat</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>yaqvadrat или Якуб Шамхалов</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>74</v>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Щёголева Надежда Дмитриевна</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>shegolevanadya02@gmail.com</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>copybarasad</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Nadya1@</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>74</v>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Щедрин Арсений Александрович</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>shchedrin.arsenij@gmail.com</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>ars667</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>ars667</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>74</v>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Морозов Фёдор</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>morozovf87@gmail.com</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>yafedya</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>yafedya</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>4</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Смирнов Алексей Витальевич</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>stendec4@mail.ru</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>stendec4</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>stendec4</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>49</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Селянинов Иван Андреевич</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>2382</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>vamka.sel@mail.ru</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>forzeros</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>forzero3</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>4</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>